--- a/testing/test_files/test_genome_annotation_cpy.xlsx
+++ b/testing/test_files/test_genome_annotation_cpy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1985937\Documents\BI_Sum_2021\EC-Scrape\testing\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D02C458-4B27-43F1-AFA5-5AD7C1C0F79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02063A23-3A23-4650-9BD6-BA244EAFD1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genome Annotation" sheetId="1" r:id="rId1"/>

--- a/testing/test_files/test_genome_annotation_cpy.xlsx
+++ b/testing/test_files/test_genome_annotation_cpy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1985937\Documents\BI_Sum_2021\EC-Scrape\testing\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02063A23-3A23-4650-9BD6-BA244EAFD1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F64F7A98-1F3E-413F-9AAE-0CC4FC5F354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genome Annotation" sheetId="1" r:id="rId1"/>
